--- a/PacificWar-GreatEastAsiaWar/Locus/GB_data.xlsx
+++ b/PacificWar-GreatEastAsiaWar/Locus/GB_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shmak\Desktop\MYSET\github_pages\PacificWar-GreatEastAsiaWar\Locus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D0D39D-F38B-4CC1-8EA6-B529BDFCB41D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8063B5-F68B-408E-828A-8A61624653FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16815" yWindow="0" windowWidth="17130" windowHeight="21945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t>復員船として従事</t>
   </si>
@@ -148,6 +148,15 @@
   </si>
   <si>
     <t>第23師団とヒ81船団の護衛</t>
+  </si>
+  <si>
+    <t>ろ号作戦より帰投中</t>
+  </si>
+  <si>
+    <t>1943-12-04</t>
+  </si>
+  <si>
+    <t>12月3日に日本帰投中、米潜水艦セイルフィッシュの魚雷1本を受ける。艦隊より落伍した本艦は再びセイルフィッシュからの三本を被雷し沈没。機関室への命中により、多数の死傷者を出した。(日本軍:北緯32度30分 東経144度0分、米軍:北緯32度37分 東経143度39分)</t>
   </si>
 </sst>
 </file>
@@ -507,7 +516,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,11 +570,20 @@
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="C4" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>37</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">

--- a/PacificWar-GreatEastAsiaWar/Locus/GB_data.xlsx
+++ b/PacificWar-GreatEastAsiaWar/Locus/GB_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shmak\Desktop\MYSET\github_pages\PacificWar-GreatEastAsiaWar\Locus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8063B5-F68B-408E-828A-8A61624653FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C3AEEC-5ADD-4AC9-B76E-EDBDCDF7306C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16815" yWindow="0" windowWidth="17130" windowHeight="21945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="81">
   <si>
     <t>復員船として従事</t>
   </si>
@@ -102,9 +102,6 @@
     <t>1943-12-15</t>
   </si>
   <si>
-    <t>1922-12-27</t>
-  </si>
-  <si>
     <t>1927-03-25</t>
   </si>
   <si>
@@ -117,12 +114,6 @@
     <t>朝日</t>
   </si>
   <si>
-    <t>1900-07-31</t>
-  </si>
-  <si>
-    <t>(シンガポール支援)</t>
-  </si>
-  <si>
     <t>シンガポール陥落後、復旧に従事した後、自信の修理のため日本帰途中、米潜「サーモン」の魚雷を左舷に2本受ける。転覆、沈没。</t>
   </si>
   <si>
@@ -156,7 +147,127 @@
     <t>1943-12-04</t>
   </si>
   <si>
-    <t>12月3日に日本帰投中、米潜水艦セイルフィッシュの魚雷1本を受ける。艦隊より落伍した本艦は再びセイルフィッシュからの三本を被雷し沈没。機関室への命中により、多数の死傷者を出した。(日本軍:北緯32度30分 東経144度0分、米軍:北緯32度37分 東経143度39分)</t>
+    <t>12月3日、瑞鳳・雲鷹・摩耶・浦風等でトラックから日本へ帰投中、米潜水艦セイルフィッシュの魚雷1本を受ける。艦隊より落伍した本艦は再びセイルフィッシュからの三本を被雷し沈没。機関室への命中により、多数の死傷者を出した。生存者を浦風と漣が救助(日本軍:北緯32度30分 東経144度0分、米軍:北緯32度37分 東経143度39分)</t>
+  </si>
+  <si>
+    <t>ヒ74船団の護衛中</t>
+  </si>
+  <si>
+    <t>1942-11-25</t>
+  </si>
+  <si>
+    <t>1944-09-17</t>
+  </si>
+  <si>
+    <t>ヒ74船団部隊護衛中、米潜水艦バーブにより魚雷二本を受け浸水、沈没。火災は起きなかった。</t>
+  </si>
+  <si>
+    <t>1942-08-31</t>
+  </si>
+  <si>
+    <t>ルソン島配備予定第26師団の海上輸送を行うヒ71船団の護衛任務中に米潜水艦ラッシャーから魚雷二本をうけ、火災・誘爆の後沈没。</t>
+  </si>
+  <si>
+    <t>ヒ71船団の護衛中</t>
+  </si>
+  <si>
+    <t>1944-08-18</t>
+  </si>
+  <si>
+    <t>1900-10-18</t>
+  </si>
+  <si>
+    <t>1921-10-13</t>
+  </si>
+  <si>
+    <t>シンガポールより帰投中</t>
+  </si>
+  <si>
+    <t>加賀型 一</t>
+  </si>
+  <si>
+    <t>加賀</t>
+  </si>
+  <si>
+    <t>午前7時22分、エンタープライズ所属ドーントレス30機により空襲を受け、4or5発を受け、誘爆により全艦炎上。駆逐艦舞風により生存者が順次収容されていたが、1625に2回大爆発が起き、沈没。</t>
+  </si>
+  <si>
+    <t>1933-10-20</t>
+  </si>
+  <si>
+    <t>lost souls</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>龍驤型 一</t>
+  </si>
+  <si>
+    <t>龍驤</t>
+  </si>
+  <si>
+    <t>1931-05-09</t>
+  </si>
+  <si>
+    <t>第二次ソロモン海戦(米:ウォッチタワー作戦)</t>
+  </si>
+  <si>
+    <t>南緯6度10分 東経160度50分</t>
+  </si>
+  <si>
+    <t>1942-08-24</t>
+  </si>
+  <si>
+    <t>サラトガ攻撃隊(ドーントレス、アベンジャー)の空襲により爆弾複数・魚雷一本命中し、大火災発生。傾斜と親水がひどく、1800に艦尾より沈没。利根、天津風、時津風は龍驤の艦長以下三百名余を救助。</t>
+  </si>
+  <si>
+    <t>北緯30度20分 西経179度17分</t>
+  </si>
+  <si>
+    <t>パパハナウモクアケア海洋保護区</t>
+  </si>
+  <si>
+    <t>訓練標的艦としての任務中</t>
+  </si>
+  <si>
+    <t>マリアナ沖海戦</t>
+  </si>
+  <si>
+    <t>1939-05-16</t>
+  </si>
+  <si>
+    <t>翔鶴</t>
+  </si>
+  <si>
+    <t>翔鶴型 一</t>
+  </si>
+  <si>
+    <t>翔鶴型 二</t>
+  </si>
+  <si>
+    <t>瑞鶴</t>
+  </si>
+  <si>
+    <t>1944-06-19</t>
+  </si>
+  <si>
+    <t>1272名</t>
+  </si>
+  <si>
+    <t>約121名</t>
+  </si>
+  <si>
+    <t>約811名(機関部員中心)</t>
+  </si>
+  <si>
+    <t>約10名(機関部員中心)</t>
+  </si>
+  <si>
+    <t>約221名</t>
+  </si>
+  <si>
+    <t>航空機発進中に米潜カヴァラにより3or4/6の魚雷をうけたが、健在だった。しかし、衝撃で充満した航空機燃料により、1401or1410に大爆発、沈没。脱出者は矢矧、浦風、秋月に救出された。</t>
   </si>
 </sst>
 </file>
@@ -219,7 +330,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -232,6 +343,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -513,23 +625,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" style="3" customWidth="1"/>
-    <col min="2" max="3" width="19.85546875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="23.28515625" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="14" style="3" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="8" style="4" customWidth="1"/>
+    <col min="7" max="7" width="15" style="3" customWidth="1"/>
+    <col min="8" max="8" width="135" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -537,96 +652,131 @@
         <v>6</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="C2" s="5" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="G3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="C3" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="E4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H4" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>20</v>
       </c>
@@ -634,60 +784,163 @@
         <v>13</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="F7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="G8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="B9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="G9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="3" t="s">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>32</v>
+      <c r="C10" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E13" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C11" r:id="rId1" display="https://geohack.toolforge.org/geohack.php?language=ja&amp;pagename=%E9%BE%8D%E9%A9%A4_(%E7%A9%BA%E6%AF%8D)&amp;params=6_10_S_160_50_E_" xr:uid="{D199A39F-88DB-497B-9280-EE00B407CA7C}"/>
+    <hyperlink ref="C10" r:id="rId2" display="https://geohack.toolforge.org/geohack.php?language=ja&amp;pagename=%E5%8A%A0%E8%B3%80_(%E7%A9%BA%E6%AF%8D)&amp;params=30_20_N_179_17_W_" xr:uid="{970069F2-1EFC-4868-8110-D3D7CA183A30}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>